--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2024/Thang7/03.XNBH/XNBH_NamAnh_010724.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2024/Thang7/03.XNBH/XNBH_NamAnh_010724.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BH VNET\VNET NEW\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2024\Thang7\03.XNBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9540F7E-D7D0-4E21-9A49-102CBAC35B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB786DD-08B3-47D8-8DBF-CB5A120C888A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t xml:space="preserve">STT </t>
   </si>
@@ -111,9 +111,6 @@
     <t>Lỗi phần cứng</t>
   </si>
   <si>
-    <t>Số Lượng</t>
-  </si>
-  <si>
     <t>Hà Văn Thể</t>
   </si>
   <si>
@@ -133,6 +130,12 @@
   </si>
   <si>
     <t>TG102LE-4G(0060)</t>
+  </si>
+  <si>
+    <t>006080056232379</t>
+  </si>
+  <si>
+    <t>IMEI/ ID</t>
   </si>
 </sst>
 </file>
@@ -503,15 +506,84 @@
     <xf numFmtId="3" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -521,77 +593,8 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -959,7 +962,7 @@
   <dimension ref="A1:M63"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:C16"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -1044,39 +1047,39 @@
       <c r="I5" s="46"/>
     </row>
     <row r="6" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
+      <c r="A6" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
     </row>
     <row r="7" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
       <c r="F7" s="20"/>
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
       <c r="I7" s="20"/>
     </row>
     <row r="8" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
@@ -1086,13 +1089,13 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
       <c r="H9" s="18"/>
@@ -1102,15 +1105,15 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="33"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
+      <c r="A10" s="56"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
     </row>
     <row r="11" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
@@ -1120,7 +1123,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D11" s="25" t="s">
         <v>2</v>
@@ -1146,18 +1149,18 @@
         <v>1</v>
       </c>
       <c r="B12" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="57" t="s">
         <v>35</v>
-      </c>
-      <c r="C12" s="28">
-        <v>1</v>
       </c>
       <c r="D12" s="23"/>
       <c r="E12" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F12" s="23"/>
       <c r="G12" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H12" s="23" t="s">
         <v>26</v>
@@ -1182,49 +1185,49 @@
       </c>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
-      <c r="G14" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
+      <c r="G14" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
     </row>
     <row r="15" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="56" t="s">
+      <c r="A15" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56" t="s">
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
       <c r="G15" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="54" t="s">
+      <c r="H15" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="I15" s="54"/>
+      <c r="I15" s="29"/>
     </row>
     <row r="16" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="57" t="s">
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
       <c r="G16" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="H16" s="57" t="s">
+      <c r="H16" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="I16" s="57"/>
+      <c r="I16" s="32"/>
     </row>
     <row r="17" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
@@ -1264,35 +1267,47 @@
       <c r="F20" s="11"/>
     </row>
     <row r="21" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="55" t="s">
+      <c r="A21" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55" t="s">
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
       <c r="G21" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="H21" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="I21" s="55"/>
+        <v>33</v>
+      </c>
+      <c r="H21" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" s="30"/>
       <c r="J21" s="13"/>
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
     </row>
     <row r="22" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
     </row>
     <row r="63" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A1:C4"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="H21:I21"/>
@@ -1303,18 +1318,6 @@
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:I10"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="1.5" bottom="1" header="0.43307086614173201" footer="0.31496062992126"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
